--- a/Tables/SS_balance.xlsx
+++ b/Tables/SS_balance.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF47FDF9-FCD9-41BB-B9EF-FD2E473A49B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0079E1-8221-4801-95D9-E8F02256BAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19065" yWindow="-12570" windowWidth="21600" windowHeight="11235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SS_admin" sheetId="1" r:id="rId1"/>
-    <sheet name="SS_survey" sheetId="4" r:id="rId2"/>
-    <sheet name="SS_admin_survey" sheetId="7" r:id="rId3"/>
-    <sheet name="survey_response_rate" sheetId="8" r:id="rId4"/>
-    <sheet name="SS_cond_survey" sheetId="9" r:id="rId5"/>
-    <sheet name="SS" sheetId="5" r:id="rId6"/>
+    <sheet name="SS_survey" sheetId="4" r:id="rId1"/>
+    <sheet name="survey_response_rate" sheetId="8" r:id="rId2"/>
+    <sheet name="SS_cond_survey" sheetId="9" r:id="rId3"/>
+    <sheet name="SS" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Choice</t>
   </si>
@@ -47,12 +45,6 @@
   </si>
   <si>
     <t>p-value</t>
-  </si>
-  <si>
-    <t>Panel A : Administrative Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan amount </t>
   </si>
   <si>
     <t>Obs</t>
@@ -73,13 +65,7 @@
     <t>Forced</t>
   </si>
   <si>
-    <t>Weekday</t>
-  </si>
-  <si>
     <t>Commitment arms</t>
-  </si>
-  <si>
-    <t>Panel B : Survey Data</t>
   </si>
   <si>
     <t>Present bias</t>
@@ -92,12 +78,6 @@
   </si>
   <si>
     <t>+ High-school</t>
-  </si>
-  <si>
-    <t>Panel A : Administrative Data (conditional on survey)</t>
-  </si>
-  <si>
-    <t>Panel B : Survey Data - response rate</t>
   </si>
   <si>
     <t>Answered</t>
@@ -113,6 +93,12 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Panel : Survey Data</t>
+  </si>
+  <si>
+    <t>Panel  : Survey Data - response rate</t>
   </si>
 </sst>
 </file>
@@ -133,23 +119,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -194,17 +169,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,16 +184,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -243,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -389,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,104 +502,13 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="A1:M11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>2267.4576271186443</v>
-      </c>
-      <c r="C2">
-        <v>2162.4846468781984</v>
-      </c>
-      <c r="D2">
-        <v>2222.993023255814</v>
-      </c>
-      <c r="E2">
-        <v>2216.7222398477156</v>
-      </c>
-      <c r="L2">
-        <v>0.64503108323202085</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>75.874088260545221</v>
-      </c>
-      <c r="C3">
-        <v>83.127592776594454</v>
-      </c>
-      <c r="D3">
-        <v>65.750426103453577</v>
-      </c>
-      <c r="E3">
-        <v>42.936615450474932</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>0.87966101694915255</v>
-      </c>
-      <c r="C4">
-        <v>0.89406345957011257</v>
-      </c>
-      <c r="D4">
-        <v>0.83100775193798448</v>
-      </c>
-      <c r="E4">
-        <v>0.8642131979695431</v>
-      </c>
-      <c r="L4">
-        <v>0.56027324425210501</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>4.3632089264597995E-2</v>
-      </c>
-      <c r="C5">
-        <v>3.4871491260106517E-2</v>
-      </c>
-      <c r="D5">
-        <v>4.7901996328697884E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.5577577893366663E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>1770</v>
-      </c>
-      <c r="C6">
-        <v>1954</v>
-      </c>
-      <c r="D6">
-        <v>2580</v>
-      </c>
-      <c r="E6">
-        <v>6304</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L23"/>
   <sheetViews>
@@ -636,9 +516,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>4084.0447483738694</v>
       </c>
@@ -655,7 +535,7 @@
         <v>0.50741363647763404</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>186.32530822216475</v>
       </c>
@@ -669,7 +549,7 @@
         <v>106.62109741727424</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.1870631315668515</v>
       </c>
@@ -686,7 +566,7 @@
         <v>0.67256604845929191</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2.4433091346626676E-2</v>
       </c>
@@ -700,7 +580,7 @@
         <v>1.2895102797403321E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.13815789473684212</v>
       </c>
@@ -717,7 +597,7 @@
         <v>0.88964950426016542</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2.0646396595072281E-2</v>
       </c>
@@ -731,7 +611,7 @@
         <v>9.0357611917287195E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.62474437627811863</v>
       </c>
@@ -748,7 +628,7 @@
         <v>0.29259959707503702</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2.8080273403161174E-2</v>
       </c>
@@ -762,7 +642,7 @@
         <v>1.6701632404580394E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>91.886692015209121</v>
       </c>
@@ -779,7 +659,7 @@
         <v>9.3375432500357097E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.72142723064601477</v>
       </c>
@@ -793,7 +673,7 @@
         <v>0.4502856911185264</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.8693877551020408</v>
       </c>
@@ -810,7 +690,7 @@
         <v>0.2521838227756053</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.5429549670760771E-2</v>
       </c>
@@ -824,7 +704,7 @@
         <v>7.5100652933181595E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>43.316996871741395</v>
       </c>
@@ -841,7 +721,7 @@
         <v>0.72947420733682788</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.68765705993205628</v>
       </c>
@@ -855,7 +735,7 @@
         <v>0.47585898339836669</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.7275390625</v>
       </c>
@@ -872,7 +752,7 @@
         <v>0.87880547636069528</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2.2722829871839111E-2</v>
       </c>
@@ -886,7 +766,7 @@
         <v>1.1899628511819889E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.65861344537815125</v>
       </c>
@@ -903,7 +783,7 @@
         <v>0.83627432511379829</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2.7084494536168076E-2</v>
       </c>
@@ -917,7 +797,7 @@
         <v>1.264015748271608E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1770</v>
       </c>
@@ -931,7 +811,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1386</v>
       </c>
@@ -947,98 +827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>2199.2352092352094</v>
-      </c>
-      <c r="C2">
-        <v>2196.0415248468344</v>
-      </c>
-      <c r="D2">
-        <v>2216.4177598385468</v>
-      </c>
-      <c r="E2">
-        <v>2205.3059747777547</v>
-      </c>
-      <c r="L2">
-        <v>0.98415991070079034</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>85.691617474481063</v>
-      </c>
-      <c r="C3">
-        <v>105.62668921394878</v>
-      </c>
-      <c r="D3">
-        <v>80.611977579989244</v>
-      </c>
-      <c r="E3">
-        <v>51.996675747123142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>0.87590187590187585</v>
-      </c>
-      <c r="C4">
-        <v>0.88563648740639889</v>
-      </c>
-      <c r="D4">
-        <v>0.84712411705348134</v>
-      </c>
-      <c r="E4">
-        <v>0.86706636344841848</v>
-      </c>
-      <c r="L4">
-        <v>0.80262123234967087</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>4.4829425630513044E-2</v>
-      </c>
-      <c r="C5">
-        <v>3.8037392189498614E-2</v>
-      </c>
-      <c r="D5">
-        <v>4.5323633701885309E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.5337910106350277E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>1386</v>
-      </c>
-      <c r="C6">
-        <v>1469</v>
-      </c>
-      <c r="D6">
-        <v>1982</v>
-      </c>
-      <c r="E6">
-        <v>4837</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:S20"/>
   <sheetViews>
@@ -1046,14 +835,14 @@
       <selection activeCell="Q2" sqref="Q2:S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.453125" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0.73333333333333328</v>
       </c>
@@ -1075,17 +864,17 @@
       <c r="O2">
         <v>33</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2.2227133407258709E-2</v>
       </c>
@@ -1116,7 +905,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.49265536723163844</v>
       </c>
@@ -1150,7 +939,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2.3096240095588593E-2</v>
       </c>
@@ -1181,7 +970,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.42937853107344631</v>
       </c>
@@ -1215,7 +1004,7 @@
         <v>30.830000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2.2539581021475692E-2</v>
       </c>
@@ -1246,7 +1035,7 @@
         <v>32.39</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.55254237288135588</v>
       </c>
@@ -1280,7 +1069,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2.3021717142206806E-2</v>
       </c>
@@ -1311,7 +1100,7 @@
         <v>41.34</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.74293785310734461</v>
       </c>
@@ -1345,7 +1134,7 @@
         <v>56.49</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2.3824936806509319E-2</v>
       </c>
@@ -1364,19 +1153,19 @@
       <c r="O11">
         <v>2090</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="8">
         <v>9</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="8">
         <f t="shared" si="0"/>
         <v>43.51</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.5536723163841808</v>
       </c>
@@ -1393,7 +1182,7 @@
         <v>0.56579109636169</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2.3197736740832281E-2</v>
       </c>
@@ -1407,7 +1196,7 @@
         <v>1.2812478832268839E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.54180790960451974</v>
       </c>
@@ -1424,7 +1213,7 @@
         <v>0.59041645057610981</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2.3028825848404245E-2</v>
       </c>
@@ -1438,7 +1227,7 @@
         <v>1.2151512644084097E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.5785310734463277</v>
       </c>
@@ -1455,7 +1244,7 @@
         <v>0.93267269990982249</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2.4804932440873628E-2</v>
       </c>
@@ -1469,7 +1258,7 @@
         <v>1.3166776724715768E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.53785310734463276</v>
       </c>
@@ -1486,7 +1275,7 @@
         <v>0.38649070048922779</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2.497582090269404E-2</v>
       </c>
@@ -1500,7 +1289,7 @@
         <v>1.3148903527138892E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1770</v>
       </c>
@@ -1519,991 +1308,795 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FF63D4-14D6-4F54-BD0D-751B1AD5E68C}">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E30" sqref="A3:E30"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <f>ROUND(SS_admin_survey!B2,0)</f>
-        <v>2199</v>
-      </c>
-      <c r="C6" s="3">
-        <f>ROUND(SS_admin_survey!C2,0)</f>
-        <v>2196</v>
-      </c>
-      <c r="D6" s="3">
-        <f>ROUND(SS_admin_survey!D2,0)</f>
-        <v>2216</v>
-      </c>
-      <c r="E6" s="3">
-        <f>ROUND(SS_admin_survey!L2,2)</f>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin_survey!B3,0),")")</f>
-        <v>(86)</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin_survey!C3,0),")")</f>
-        <v>(106)</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin_survey!D3,0),")")</f>
-        <v>(81)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <f>ROUND(SS_admin_survey!B4,2)</f>
-        <v>0.88</v>
-      </c>
-      <c r="C8" s="3">
-        <f>ROUND(SS_admin_survey!C4,2)</f>
-        <v>0.89</v>
-      </c>
-      <c r="D8" s="3">
-        <f>ROUND(SS_admin_survey!D4,2)</f>
-        <v>0.85</v>
-      </c>
-      <c r="E8" s="3">
-        <f>ROUND(SS_admin_survey!L4,2)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin_survey!B5,3),")")</f>
-        <v>(0.045)</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin_survey!C5,3),")")</f>
-        <v>(0.038)</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin_survey!D5,3),")")</f>
-        <v>(0.045)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <f>SS_admin_survey!B6</f>
-        <v>1386</v>
-      </c>
-      <c r="C10" s="4">
-        <f>SS_admin_survey!C6</f>
-        <v>1469</v>
-      </c>
-      <c r="D10" s="4">
-        <f>SS_admin_survey!D6</f>
-        <v>1982</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
         <f>ROUND(survey_response_rate!B2,2)</f>
         <v>0.73</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C6" s="2">
         <f>ROUND(survey_response_rate!C2,2)</f>
         <v>0.69</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D6" s="2">
         <f>ROUND(survey_response_rate!D2,2)</f>
         <v>0.71</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E6" s="2">
         <f>ROUND(survey_response_rate!L2,2)</f>
         <v>0.39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="str">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B3,3),")")</f>
         <v>(0.022)</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C7" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!C3,3),")")</f>
         <v>(0.024)</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D7" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!D3,3),")")</f>
         <v>(0.024)</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
         <f>ROUND(survey_response_rate!B4,2)</f>
         <v>0.49</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C8" s="2">
         <f>ROUND(survey_response_rate!C4,2)</f>
         <v>0.48</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D8" s="2">
         <f>ROUND(survey_response_rate!D4,2)</f>
         <v>0.44</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E8" s="2">
         <f>ROUND(survey_response_rate!L4,2)</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="str">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B5,3),")")</f>
         <v>(0.023)</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C9" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!C5,3),")")</f>
         <v>(0.022)</v>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="D9" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!D5,3),")")</f>
         <v>(0.022)</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <f>ROUND(survey_response_rate!B6,2)</f>
         <v>0.43</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C10" s="2">
         <f>ROUND(survey_response_rate!C6,2)</f>
         <v>0.44</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D10" s="2">
         <f>ROUND(survey_response_rate!D6,2)</f>
         <v>0.39</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E10" s="2">
         <f>ROUND(survey_response_rate!L6,2)</f>
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="str">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B7,2),")")</f>
         <v>(0.02)</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C11" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!C7,2),")")</f>
         <v>(0.02)</v>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="D11" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!D7,2),")")</f>
         <v>(0.02)</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <f>ROUND(survey_response_rate!B8,2)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C12" s="2">
         <f>ROUND(survey_response_rate!C8,2)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D12" s="2">
         <f>ROUND(survey_response_rate!D8,2)</f>
         <v>0.53</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E12" s="2">
         <f>ROUND(survey_response_rate!L8,2)</f>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="str">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B9,3),")")</f>
         <v>(0.023)</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!C9,3),")")</f>
         <v>(0.023)</v>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="D13" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!D9,3),")")</f>
         <v>(0.019)</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
         <f>ROUND(survey_response_rate!B10,2)</f>
         <v>0.74</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C14" s="2">
         <f>ROUND(survey_response_rate!C10,2)</f>
         <v>0.72</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D14" s="2">
         <f>ROUND(survey_response_rate!D10,2)</f>
         <v>0.74</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E14" s="2">
         <f>ROUND(survey_response_rate!L10,2)</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="3" t="str">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B11,3),")")</f>
         <v>(0.024)</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C15" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!C11,3),")")</f>
         <v>(0.025)</v>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="D15" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!D11,3),")")</f>
         <v>(0.025)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
         <f>ROUND(survey_response_rate!B12,2)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C16" s="2">
         <f>ROUND(survey_response_rate!C12,2)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D16" s="2">
         <f>ROUND(survey_response_rate!D12,2)</f>
         <v>0.53</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E16" s="2">
         <f>ROUND(survey_response_rate!L12,2)</f>
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="3" t="str">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B13,3),")")</f>
         <v>(0.023)</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C17" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!C13,3),")")</f>
         <v>(0.024)</v>
       </c>
-      <c r="D23" s="3" t="str">
+      <c r="D17" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!D13,3),")")</f>
         <v>(0.02)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
         <f>ROUND(survey_response_rate!B14,2)</f>
         <v>0.54</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C18" s="2">
         <f>ROUND(survey_response_rate!C14,2)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D18" s="2">
         <f>ROUND(survey_response_rate!D14,2)</f>
         <v>0.52</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E18" s="2">
         <f>ROUND(survey_response_rate!L14,2)</f>
         <v>0.59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="str">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B15,3),")")</f>
         <v>(0.023)</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C19" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!C15,3),")")</f>
         <v>(0.023)</v>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="D19" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!D15,3),")")</f>
         <v>(0.018)</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
         <f>ROUND(survey_response_rate!B16,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C20" s="2">
         <f>ROUND(survey_response_rate!C16,2)</f>
         <v>0.59</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D20" s="2">
         <f>ROUND(survey_response_rate!D16,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E20" s="2">
         <f>ROUND(survey_response_rate!L16,2)</f>
         <v>0.93</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="str">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B17,3),")")</f>
         <v>(0.025)</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C21" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!C17,3),")")</f>
         <v>(0.024)</v>
       </c>
-      <c r="D27" s="3" t="str">
+      <c r="D21" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!D17,3),")")</f>
         <v>(0.02)</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2">
         <f>ROUND(survey_response_rate!B18,2)</f>
         <v>0.54</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C22" s="2">
         <f>ROUND(survey_response_rate!C18,2)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D22" s="2">
         <f>ROUND(survey_response_rate!D18,2)</f>
         <v>0.51</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E22" s="2">
         <f>ROUND(survey_response_rate!L18,2)</f>
         <v>0.39</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="str">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B19,3),")")</f>
         <v>(0.025)</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C23" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!C19,3),")")</f>
         <v>(0.025)</v>
       </c>
-      <c r="D29" s="3" t="str">
+      <c r="D23" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!D19,3),")")</f>
         <v>(0.019)</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="5">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
         <f>SS_survey!B23</f>
         <v>1386</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C24" s="3">
         <f>SS_survey!C23</f>
         <v>1469</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D24" s="3">
         <f>SS_survey!D23</f>
         <v>1982</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B054637-0760-4807-B01C-4419EACB0C14}">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <f>ROUND(SS_admin!B2,0)</f>
-        <v>2267</v>
-      </c>
-      <c r="C6" s="3">
-        <f>ROUND(SS_admin!C2,0)</f>
-        <v>2162</v>
-      </c>
-      <c r="D6" s="3">
-        <f>ROUND(SS_admin!D2,0)</f>
-        <v>2223</v>
-      </c>
-      <c r="E6" s="3">
-        <f>ROUND(SS_admin!L2,2)</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin!B3,0),")")</f>
-        <v>(76)</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin!C3,0),")")</f>
-        <v>(83)</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin!D3,0),")")</f>
-        <v>(66)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <f>ROUND(SS_admin!B4,2)</f>
-        <v>0.88</v>
-      </c>
-      <c r="C8" s="3">
-        <f>ROUND(SS_admin!C4,2)</f>
-        <v>0.89</v>
-      </c>
-      <c r="D8" s="3">
-        <f>ROUND(SS_admin!D4,2)</f>
-        <v>0.83</v>
-      </c>
-      <c r="E8" s="3">
-        <f>ROUND(SS_admin!L4,2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin!B5,3),")")</f>
-        <v>(0.044)</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin!C5,3),")")</f>
-        <v>(0.035)</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f>CONCATENATE("(",ROUND(SS_admin!D5,3),")")</f>
-        <v>(0.048)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <f>SS_admin!B6</f>
-        <v>1770</v>
-      </c>
-      <c r="C10" s="4">
-        <f>SS_admin!C6</f>
-        <v>1954</v>
-      </c>
-      <c r="D10" s="4">
-        <f>SS_admin!D6</f>
-        <v>2580</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
         <f>ROUND(SS_survey!B2,0)</f>
         <v>4084</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C6" s="2">
         <f>ROUND(SS_survey!C2,0)</f>
         <v>3877</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D6" s="2">
         <f>ROUND(SS_survey!D2,0)</f>
         <v>4173</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E6" s="2">
         <f>ROUND(SS_survey!L2,2)</f>
         <v>0.51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="str">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B3,0),")")</f>
         <v>(186)</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C7" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C3,0),")")</f>
         <v>(193)</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D7" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D3,0),")")</f>
         <v>(172)</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
         <f>ROUND(SS_survey!B4,2)</f>
         <v>0.19</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C8" s="2">
         <f>ROUND(SS_survey!C4,2)</f>
         <v>0.21</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D8" s="2">
         <f>ROUND(SS_survey!D4,2)</f>
         <v>0.18</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E8" s="2">
         <f>ROUND(SS_survey!L4,2)</f>
         <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="str">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B5,3),")")</f>
         <v>(0.024)</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C9" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C5,3),")")</f>
         <v>(0.023)</v>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="D9" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D5,3),")")</f>
         <v>(0.02)</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <f>ROUND(SS_survey!B6,2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C10" s="2">
         <f>ROUND(SS_survey!C6,2)</f>
         <v>0.13</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D10" s="2">
         <f>ROUND(SS_survey!D6,2)</f>
         <v>0.13</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E10" s="2">
         <f>ROUND(SS_survey!L6,2)</f>
         <v>0.89</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="str">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B7,2),")")</f>
         <v>(0.02)</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C11" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C7,2),")")</f>
         <v>(0.01)</v>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="D11" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D7,2),")")</f>
         <v>(0.01)</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <f>ROUND(SS_survey!B8,2)</f>
         <v>0.62</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C12" s="2">
         <f>ROUND(SS_survey!C8,2)</f>
         <v>0.59</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D12" s="2">
         <f>ROUND(SS_survey!D8,2)</f>
         <v>0.65</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E12" s="2">
         <f>ROUND(SS_survey!L8,2)</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="str">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B9,3),")")</f>
         <v>(0.028)</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C9,3),")")</f>
         <v>(0.036)</v>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="D13" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D9,3),")")</f>
         <v>(0.021)</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
         <f>ROUND(SS_survey!B10,2)</f>
         <v>91.89</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C14" s="2">
         <f>ROUND(SS_survey!C10,2)</f>
         <v>91.65</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D14" s="2">
         <f>ROUND(SS_survey!D10,2)</f>
         <v>93.61</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E14" s="2">
         <f>ROUND(SS_survey!L10,2)</f>
         <v>0.09</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="3" t="str">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B11,3),")")</f>
         <v>(0.721)</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C15" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C11,3),")")</f>
         <v>(1.031)</v>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="D15" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D11,3),")")</f>
         <v>(0.582)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
         <f>ROUND(SS_survey!B12,2)</f>
         <v>0.87</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C16" s="2">
         <f>ROUND(SS_survey!C12,2)</f>
         <v>0.89</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D16" s="2">
         <f>ROUND(SS_survey!D12,2)</f>
         <v>0.9</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E16" s="2">
         <f>ROUND(SS_survey!L12,2)</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <f>ROUND(SS_survey!B13,2)</f>
         <v>0.02</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C17" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C13,3),")")</f>
         <v>(0.013)</v>
       </c>
-      <c r="D23" s="3" t="str">
+      <c r="D17" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D13,3),")")</f>
         <v>(0.011)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
         <f>ROUND(SS_survey!B14,2)</f>
         <v>43.32</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C18" s="2">
         <f>ROUND(SS_survey!C14,2)</f>
         <v>42.85</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D18" s="2">
         <f>ROUND(SS_survey!D14,2)</f>
         <v>43.82</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E18" s="2">
         <f>ROUND(SS_survey!L14,2)</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="str">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B15,3),")")</f>
         <v>(0.688)</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C19" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C15,3),")")</f>
         <v>(0.949)</v>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="D19" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D15,3),")")</f>
         <v>(0.792)</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
         <f>ROUND(SS_survey!B16,2)</f>
         <v>0.73</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C20" s="2">
         <f>ROUND(SS_survey!C16,2)</f>
         <v>0.72</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D20" s="2">
         <f>ROUND(SS_survey!D16,2)</f>
         <v>0.71</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E20" s="2">
         <f>ROUND(SS_survey!L16,2)</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="str">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B17,3),")")</f>
         <v>(0.023)</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C21" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C17,3),")")</f>
         <v>(0.019)</v>
       </c>
-      <c r="D27" s="3" t="str">
+      <c r="D21" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D17,3),")")</f>
         <v>(0.02)</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2">
         <f>ROUND(SS_survey!B18,2)</f>
         <v>0.66</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C22" s="2">
         <f>ROUND(SS_survey!C18,2)</f>
         <v>0.67</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D22" s="2">
         <f>ROUND(SS_survey!D18,2)</f>
         <v>0.65</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E22" s="2">
         <f>ROUND(SS_survey!L18,2)</f>
         <v>0.84</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="str">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B19,3),")")</f>
         <v>(0.027)</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C23" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C19,3),")")</f>
         <v>(0.022)</v>
       </c>
-      <c r="D29" s="3" t="str">
+      <c r="D23" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D19,3),")")</f>
         <v>(0.018)</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="5">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
         <f>SS_survey!B23</f>
         <v>1386</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C24" s="3">
         <f>SS_survey!C23</f>
         <v>1469</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D24" s="3">
         <f>SS_survey!D23</f>
         <v>1982</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="C3:E3"/>
   </mergeCells>

--- a/Tables/SS_balance.xlsx
+++ b/Tables/SS_balance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0079E1-8221-4801-95D9-E8F02256BAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B1C364-BB05-41CE-BF52-2956A2B0512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SS_survey" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Choice</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Panel  : Survey Data - response rate</t>
+  </si>
+  <si>
+    <t>Structure</t>
   </si>
 </sst>
 </file>
@@ -516,9 +519,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>4084.0447483738694</v>
       </c>
@@ -532,15 +535,15 @@
         <v>4057.7718023592788</v>
       </c>
       <c r="L2">
-        <v>0.50741363647763404</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+        <v>0.50741363647763371</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3">
-        <v>186.32530822216475</v>
+        <v>186.32530822216472</v>
       </c>
       <c r="C3">
-        <v>193.32407154060641</v>
+        <v>193.32407154060644</v>
       </c>
       <c r="D3">
         <v>171.58152340909874</v>
@@ -549,7 +552,7 @@
         <v>106.62109741727424</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.1870631315668515</v>
       </c>
@@ -563,24 +566,24 @@
         <v>0.19285795427201724</v>
       </c>
       <c r="L4">
-        <v>0.67256604845929191</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+        <v>0.67256604845929213</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>2.4433091346626676E-2</v>
+        <v>2.4433091346626679E-2</v>
       </c>
       <c r="C5">
-        <v>2.2831240521491842E-2</v>
+        <v>2.2831240521491835E-2</v>
       </c>
       <c r="D5">
         <v>2.0246312642953609E-2</v>
       </c>
       <c r="E5">
-        <v>1.2895102797403321E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1.2895102797403319E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.13815789473684212</v>
       </c>
@@ -597,21 +600,21 @@
         <v>0.88964950426016542</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>2.0646396595072281E-2</v>
+        <v>2.0646396595072284E-2</v>
       </c>
       <c r="C7">
-        <v>1.4271538377509517E-2</v>
+        <v>1.4271538377509519E-2</v>
       </c>
       <c r="D7">
-        <v>1.2989025875656875E-2</v>
+        <v>1.2989025875656873E-2</v>
       </c>
       <c r="E7">
-        <v>9.0357611917287195E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <v>9.0357611917287212E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.62474437627811863</v>
       </c>
@@ -628,21 +631,21 @@
         <v>0.29259959707503702</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>2.8080273403161174E-2</v>
+        <v>2.8080273403161177E-2</v>
       </c>
       <c r="C9">
         <v>3.5546721070160624E-2</v>
       </c>
       <c r="D9">
-        <v>2.1014189879288447E-2</v>
+        <v>2.1014189879288443E-2</v>
       </c>
       <c r="E9">
         <v>1.6701632404580394E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>91.886692015209121</v>
       </c>
@@ -659,12 +662,12 @@
         <v>9.3375432500357097E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.72142723064601477</v>
       </c>
       <c r="C11">
-        <v>1.0314969767030808</v>
+        <v>1.031496976703081</v>
       </c>
       <c r="D11">
         <v>0.58165693064045443</v>
@@ -673,7 +676,7 @@
         <v>0.4502856911185264</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0.8693877551020408</v>
       </c>
@@ -690,7 +693,7 @@
         <v>0.2521838227756053</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>1.5429549670760771E-2</v>
       </c>
@@ -704,7 +707,7 @@
         <v>7.5100652933181595E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>43.316996871741395</v>
       </c>
@@ -721,21 +724,21 @@
         <v>0.72947420733682788</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0.68765705993205628</v>
       </c>
       <c r="C15">
-        <v>0.94934692018880484</v>
+        <v>0.94934692018880462</v>
       </c>
       <c r="D15">
-        <v>0.79169967129326269</v>
+        <v>0.79169967129326257</v>
       </c>
       <c r="E15">
         <v>0.47585898339836669</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0.7275390625</v>
       </c>
@@ -752,21 +755,21 @@
         <v>0.87880547636069528</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>2.2722829871839111E-2</v>
       </c>
       <c r="C17">
-        <v>1.8719850717439711E-2</v>
+        <v>1.8719850717439715E-2</v>
       </c>
       <c r="D17">
-        <v>1.9807350620927647E-2</v>
+        <v>1.9807350620927644E-2</v>
       </c>
       <c r="E17">
-        <v>1.1899628511819889E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1.1899628511819891E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0.65861344537815125</v>
       </c>
@@ -780,12 +783,12 @@
         <v>0.65900954653937949</v>
       </c>
       <c r="L18">
-        <v>0.83627432511379829</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <v>0.83627432511379807</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>2.7084494536168076E-2</v>
+        <v>2.7084494536168072E-2</v>
       </c>
       <c r="C19">
         <v>2.245117168137609E-2</v>
@@ -797,7 +800,7 @@
         <v>1.264015748271608E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>1770</v>
       </c>
@@ -811,7 +814,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>1386</v>
       </c>
@@ -835,14 +838,14 @@
       <selection activeCell="Q2" sqref="Q2:S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>0.73333333333333328</v>
       </c>
@@ -856,7 +859,7 @@
         <v>0.70828045685279184</v>
       </c>
       <c r="L2">
-        <v>0.38947230579030417</v>
+        <v>0.38947230579030429</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -874,12 +877,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2.2227133407258709E-2</v>
       </c>
       <c r="C3">
-        <v>2.3945559259684192E-2</v>
+        <v>2.3945559259684196E-2</v>
       </c>
       <c r="D3">
         <v>2.4487406306672753E-2</v>
@@ -905,7 +908,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.49265536723163844</v>
       </c>
@@ -939,18 +942,18 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>2.3096240095588593E-2</v>
+        <v>2.3096240095588597E-2</v>
       </c>
       <c r="C5">
-        <v>2.2430876785456678E-2</v>
+        <v>2.2430876785456685E-2</v>
       </c>
       <c r="D5">
         <v>2.2238865610497347E-2</v>
       </c>
       <c r="E5">
-        <v>1.3451909622314613E-2</v>
+        <v>1.3451909622314611E-2</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -970,7 +973,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.42937853107344631</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>30.830000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>2.2539581021475692E-2</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>1.7156228789498334E-2</v>
       </c>
       <c r="E7">
-        <v>1.1856963930785312E-2</v>
+        <v>1.1856963930785313E-2</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -1035,7 +1038,7 @@
         <v>32.39</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.55254237288135588</v>
       </c>
@@ -1069,9 +1072,9 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>2.3021717142206806E-2</v>
+        <v>2.3021717142206799E-2</v>
       </c>
       <c r="C9">
         <v>2.284086769741038E-2</v>
@@ -1100,7 +1103,7 @@
         <v>41.34</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0.74293785310734461</v>
       </c>
@@ -1134,18 +1137,18 @@
         <v>56.49</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>2.3824936806509319E-2</v>
       </c>
       <c r="C11">
-        <v>2.5477564039296342E-2</v>
+        <v>2.5477564039296352E-2</v>
       </c>
       <c r="D11">
         <v>2.5358148430980946E-2</v>
       </c>
       <c r="E11">
-        <v>1.4625072871412273E-2</v>
+        <v>1.4625072871412275E-2</v>
       </c>
       <c r="N11">
         <v>9</v>
@@ -1165,7 +1168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0.5536723163841808</v>
       </c>
@@ -1179,10 +1182,10 @@
         <v>0.55012690355329952</v>
       </c>
       <c r="L12">
-        <v>0.56579109636169</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0.56579109636169034</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>2.3197736740832281E-2</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>1.2812478832268839E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.54180790960451974</v>
       </c>
@@ -1213,21 +1216,21 @@
         <v>0.59041645057610981</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>2.3028825848404245E-2</v>
+        <v>2.3028825848404249E-2</v>
       </c>
       <c r="C15">
-        <v>2.2637624384734246E-2</v>
+        <v>2.263762438473425E-2</v>
       </c>
       <c r="D15">
         <v>1.7949107537719385E-2</v>
       </c>
       <c r="E15">
-        <v>1.2151512644084097E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1.2151512644084095E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0.5785310734463277</v>
       </c>
@@ -1244,21 +1247,21 @@
         <v>0.93267269990982249</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>2.4804932440873628E-2</v>
       </c>
       <c r="C17">
-        <v>2.4454339740942705E-2</v>
+        <v>2.4454339740942712E-2</v>
       </c>
       <c r="D17">
-        <v>2.0184205552730608E-2</v>
+        <v>2.0184205552730605E-2</v>
       </c>
       <c r="E17">
-        <v>1.3166776724715768E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1.3166776724715766E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0.53785310734463276</v>
       </c>
@@ -1272,10 +1275,10 @@
         <v>0.53172588832487311</v>
       </c>
       <c r="L18">
-        <v>0.38649070048922779</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <v>0.38649070048922801</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>2.497582090269404E-2</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>1.3148903527138892E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>1770</v>
       </c>
@@ -1316,30 +1319,30 @@
       <selection activeCell="A3" sqref="A3:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
         <v>20</v>
@@ -1362,7 +1365,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B3,3),")")</f>
         <v>(0.022)</v>
@@ -1397,7 +1400,7 @@
         <v>(0.024)</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B5,3),")")</f>
         <v>(0.023)</v>
@@ -1432,7 +1435,7 @@
         <v>(0.022)</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B7,2),")")</f>
         <v>(0.02)</v>
@@ -1467,7 +1470,7 @@
         <v>(0.02)</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B9,3),")")</f>
         <v>(0.023)</v>
@@ -1502,7 +1505,7 @@
         <v>(0.019)</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B11,3),")")</f>
         <v>(0.024)</v>
@@ -1537,7 +1540,7 @@
         <v>(0.025)</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B13,3),")")</f>
         <v>(0.023)</v>
@@ -1572,7 +1575,7 @@
         <v>(0.02)</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B15,3),")")</f>
         <v>(0.023)</v>
@@ -1607,7 +1610,7 @@
         <v>(0.018)</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B17,3),")")</f>
         <v>(0.025)</v>
@@ -1642,7 +1645,7 @@
         <v>(0.02)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="str">
         <f>CONCATENATE("(",ROUND(survey_response_rate!B19,3),")")</f>
         <v>(0.025)</v>
@@ -1677,7 +1680,7 @@
         <v>(0.019)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1698,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
@@ -1708,397 +1711,389 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B054637-0760-4807-B01C-4419EACB0C14}">
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="11" t="s">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B5" s="2">
         <f>ROUND(SS_survey!B2,0)</f>
         <v>4084</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C5" s="2">
         <f>ROUND(SS_survey!C2,0)</f>
         <v>3877</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D5" s="2">
         <f>ROUND(SS_survey!D2,0)</f>
         <v>4173</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E5" s="2">
         <f>ROUND(SS_survey!L2,2)</f>
         <v>0.51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="str">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B3,0),")")</f>
         <v>(186)</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C6" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C3,0),")")</f>
         <v>(193)</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D6" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D3,0),")")</f>
         <v>(172)</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B7" s="2">
         <f>ROUND(SS_survey!B4,2)</f>
         <v>0.19</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C7" s="2">
         <f>ROUND(SS_survey!C4,2)</f>
         <v>0.21</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D7" s="2">
         <f>ROUND(SS_survey!D4,2)</f>
         <v>0.18</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E7" s="2">
         <f>ROUND(SS_survey!L4,2)</f>
         <v>0.67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="str">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B5,3),")")</f>
         <v>(0.024)</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C8" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C5,3),")")</f>
         <v>(0.023)</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D8" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D5,3),")")</f>
         <v>(0.02)</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B9" s="2">
         <f>ROUND(SS_survey!B6,2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C9" s="2">
         <f>ROUND(SS_survey!C6,2)</f>
         <v>0.13</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D9" s="2">
         <f>ROUND(SS_survey!D6,2)</f>
         <v>0.13</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E9" s="2">
         <f>ROUND(SS_survey!L6,2)</f>
         <v>0.89</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="str">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B7,2),")")</f>
         <v>(0.02)</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C10" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C7,2),")")</f>
         <v>(0.01)</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D10" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D7,2),")")</f>
         <v>(0.01)</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B11" s="2">
         <f>ROUND(SS_survey!B8,2)</f>
         <v>0.62</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C11" s="2">
         <f>ROUND(SS_survey!C8,2)</f>
         <v>0.59</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D11" s="2">
         <f>ROUND(SS_survey!D8,2)</f>
         <v>0.65</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E11" s="2">
         <f>ROUND(SS_survey!L8,2)</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="str">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B9,3),")")</f>
         <v>(0.028)</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C12" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C9,3),")")</f>
         <v>(0.036)</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D9,3),")")</f>
         <v>(0.021)</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B13" s="2">
         <f>ROUND(SS_survey!B10,2)</f>
         <v>91.89</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C13" s="2">
         <f>ROUND(SS_survey!C10,2)</f>
         <v>91.65</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D13" s="2">
         <f>ROUND(SS_survey!D10,2)</f>
         <v>93.61</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E13" s="2">
         <f>ROUND(SS_survey!L10,2)</f>
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="str">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B11,3),")")</f>
         <v>(0.721)</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C14" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C11,3),")")</f>
         <v>(1.031)</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D11,3),")")</f>
         <v>(0.582)</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B15" s="2">
         <f>ROUND(SS_survey!B12,2)</f>
         <v>0.87</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C15" s="2">
         <f>ROUND(SS_survey!C12,2)</f>
         <v>0.89</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D15" s="2">
         <f>ROUND(SS_survey!D12,2)</f>
         <v>0.9</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E15" s="2">
         <f>ROUND(SS_survey!L12,2)</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
         <f>ROUND(SS_survey!B13,2)</f>
         <v>0.02</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C16" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C13,3),")")</f>
         <v>(0.013)</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D13,3),")")</f>
         <v>(0.011)</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B17" s="2">
         <f>ROUND(SS_survey!B14,2)</f>
         <v>43.32</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C17" s="2">
         <f>ROUND(SS_survey!C14,2)</f>
         <v>42.85</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D17" s="2">
         <f>ROUND(SS_survey!D14,2)</f>
         <v>43.82</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E17" s="2">
         <f>ROUND(SS_survey!L14,2)</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="str">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B15,3),")")</f>
         <v>(0.688)</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C18" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C15,3),")")</f>
         <v>(0.949)</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D15,3),")")</f>
         <v>(0.792)</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B19" s="2">
         <f>ROUND(SS_survey!B16,2)</f>
         <v>0.73</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C19" s="2">
         <f>ROUND(SS_survey!C16,2)</f>
         <v>0.72</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D19" s="2">
         <f>ROUND(SS_survey!D16,2)</f>
         <v>0.71</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E19" s="2">
         <f>ROUND(SS_survey!L16,2)</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="str">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B17,3),")")</f>
         <v>(0.023)</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C20" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C17,3),")")</f>
         <v>(0.019)</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D17,3),")")</f>
         <v>(0.02)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B21" s="2">
         <f>ROUND(SS_survey!B18,2)</f>
         <v>0.66</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C21" s="2">
         <f>ROUND(SS_survey!C18,2)</f>
         <v>0.67</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D21" s="2">
         <f>ROUND(SS_survey!D18,2)</f>
         <v>0.65</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E21" s="2">
         <f>ROUND(SS_survey!L18,2)</f>
         <v>0.84</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="str">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!B19,3),")")</f>
         <v>(0.027)</v>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="C22" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!C19,3),")")</f>
         <v>(0.022)</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f>CONCATENATE("(",ROUND(SS_survey!D19,3),")")</f>
         <v>(0.018)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B23" s="3">
         <f>SS_survey!B23</f>
         <v>1386</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C23" s="3">
         <f>SS_survey!C23</f>
         <v>1469</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D23" s="3">
         <f>SS_survey!D23</f>
         <v>1982</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
